--- a/pred_ohlcv/54_21/2019-10-18 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 FAB ohlcv.xlsx
@@ -1588,7 +1588,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>990744.4932979632</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>975632.4186979631</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1219503.318597963</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1219358.985397963</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1219641.570997963</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1219924.853497963</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1253583.312197963</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1186576.530897963</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1111285.615497963</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1111395.615497963</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>978979.9799979633</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>603940.8304979634</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4296192.890628352</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4296327.271728352</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4296327.271728352</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4303273.450228352</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4431450.956828352</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4431429.956828352</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4431429.956828352</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4599440.227549228</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4613148.226049228</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4613148.226049228</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-4663064.950249228</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-4409330.019649228</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-3542084.021749228</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3542084.021749228</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-3234821.146949228</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 FAB ohlcv.xlsx
@@ -1432,7 +1432,7 @@
         <v>1042203.886397963</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1041644.486197963</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>990744.4932979632</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>975632.4186979631</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1219503.318597963</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1219358.985397963</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1219641.570997963</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1219924.853497963</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1253583.312197963</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1186576.530897963</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1111285.615497963</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1111395.615497963</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>978979.9799979633</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>603940.8304979634</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>603940.8304979634</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>560969.9718979633</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4296192.890628352</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4296327.271728352</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4296327.271728352</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4303273.450228352</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4431450.956828352</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4431429.956828352</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4431429.956828352</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4599440.227549228</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4613148.226049228</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-4663064.950249228</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-4409330.019649228</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-3542084.021749228</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3542084.021749228</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-3234821.146949228</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
